--- a/IPL/Mumbai Indians/Tim David.xlsx
+++ b/IPL/Mumbai Indians/Tim David.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,28 +445,31 @@
         <v>Tim David</v>
       </c>
       <c r="C2" t="str">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D2" t="str">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
       </c>
       <c r="F2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>150.00</v>
+        <v>57.14</v>
       </c>
       <c r="H2" t="str">
-        <v>Delhi Capitals</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I2" t="str">
-        <v>Brabourne</v>
+        <v>Bengaluru</v>
       </c>
       <c r="J2" t="str">
-        <v>March 27 2022</v>
+        <v>April 02 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -477,28 +480,31 @@
         <v>Tim David</v>
       </c>
       <c r="C3" t="str">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D3" t="str">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E3" t="str">
         <v>2</v>
       </c>
       <c r="F3" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>209.52</v>
+        <v>145.45</v>
       </c>
       <c r="H3" t="str">
-        <v>Gujarat Titans</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I3" t="str">
-        <v>Brabourne</v>
+        <v>Hyderabad</v>
       </c>
       <c r="J3" t="str">
-        <v>May 06 2022</v>
+        <v>April 18 2023</v>
+      </c>
+      <c r="K3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -509,31 +515,31 @@
         <v>Tim David</v>
       </c>
       <c r="C4" t="str">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="D4" t="str">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E4" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>209.52</v>
+        <v>50.00</v>
       </c>
       <c r="H4" t="str">
-        <v>Gujarat Titans</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I4" t="str">
-        <v>Brabourne</v>
+        <v>Chennai</v>
       </c>
       <c r="J4" t="str">
-        <v>May 06 2022</v>
+        <v>May 06 2023</v>
       </c>
       <c r="K4" t="str">
-        <v>Mumbai won by 5 runs</v>
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -544,31 +550,31 @@
         <v>Tim David</v>
       </c>
       <c r="C5" t="str">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D5" t="str">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E5" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="str">
-        <v>150.00</v>
+        <v>140.90</v>
       </c>
       <c r="H5" t="str">
-        <v>Delhi Capitals</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I5" t="str">
-        <v>Brabourne</v>
+        <v>Wankhede</v>
       </c>
       <c r="J5" t="str">
-        <v>March 27 2022</v>
+        <v>April 08 2023</v>
       </c>
       <c r="K5" t="str">
-        <v>Capitals won by 4 wickets (with 10 balls remaining)</v>
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -579,36 +585,71 @@
         <v>Tim David</v>
       </c>
       <c r="C6" t="str">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D6" t="str">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E6" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G6" t="str">
-        <v>209.52</v>
+        <v>166.66</v>
       </c>
       <c r="H6" t="str">
         <v>Gujarat Titans</v>
       </c>
       <c r="I6" t="str">
-        <v>Brabourne</v>
+        <v>Wankhede</v>
       </c>
       <c r="J6" t="str">
-        <v>May 06 2022</v>
+        <v>May 12 2023</v>
       </c>
       <c r="K6" t="str">
-        <v>Mumbai won by 5 runs</v>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Tim David</v>
+      </c>
+      <c r="C7" t="str">
+        <v>13</v>
+      </c>
+      <c r="D7" t="str">
+        <v>13</v>
+      </c>
+      <c r="E7" t="str">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Lucknow Super Giants</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Chennai</v>
+      </c>
+      <c r="J7" t="str">
+        <v>May 24 2023</v>
+      </c>
+      <c r="K7" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K7"/>
   </ignoredErrors>
 </worksheet>
 </file>